--- a/data/trans_camb/P18_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,89</t>
+          <t>-25,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-35,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-8,82</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-16,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 32,48</t>
+          <t>-15,68; 8,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 39,64</t>
+          <t>-56,68; -3,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 18,07</t>
+          <t>-24,42; 8,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 12,42</t>
+          <t>-71,02; -6,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 10,9</t>
+          <t>-15,01; 20,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 13,83</t>
+          <t>-12,35; 23,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 17,29</t>
+          <t>-26,13; 11,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 19,11</t>
+          <t>-19,25; 20,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 12,56</t>
+          <t>-12,84; 11,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-30,31; 6,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-20,54; 7,79</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-44,07; -0,19</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>106,86%</t>
+          <t>-3,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>214,59%</t>
+          <t>-28,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,71%</t>
+          <t>-8,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>-38,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-11,02%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-20,03%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 668,81</t>
+          <t>-17,07; 9,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,41; 760,66</t>
+          <t>-61,12; -4,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 339,5</t>
+          <t>-26,21; 9,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 85,36</t>
+          <t>-74,5; -7,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,8; 68,07</t>
+          <t>-20,46; 34,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,14; 81,2</t>
+          <t>-15,23; 41,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 144,9</t>
+          <t>-34,14; 19,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 159,97</t>
+          <t>-24,85; 33,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 107,18</t>
+          <t>-15,03; 15,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-36,26; 7,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-24,54; 10,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-52,08; -1,0</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,82</t>
+          <t>-14,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,19</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-9,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 4,28</t>
+          <t>-9,36; 6,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 14,28</t>
+          <t>-18,93; 3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 7,01</t>
+          <t>-13,5; 5,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 0,24</t>
+          <t>-27,91; -3,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 9,4</t>
+          <t>-5,0; 12,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 13,35</t>
+          <t>-11,86; 7,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 0,17</t>
+          <t>-14,96; 4,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 9,22</t>
+          <t>-14,97; 3,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 7,5</t>
+          <t>-5,21; 8,06</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,48; 2,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; 1,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-17,53; -2,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,64%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>-4,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,99%</t>
+          <t>-17,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,34%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-5,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-12,34%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 34,18</t>
+          <t>-10,42; 8,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 109,51</t>
+          <t>-21,31; 3,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 53,25</t>
+          <t>-15,03; 6,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,76; 1,39</t>
+          <t>-31,72; -4,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 43,57</t>
+          <t>-6,55; 18,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 57,96</t>
+          <t>-15,04; 10,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 0,97</t>
+          <t>-19,36; 7,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 47,89</t>
+          <t>-19,53; 5,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 39,35</t>
+          <t>-6,28; 10,41</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-14,07; 3,49</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 1,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-22,04; -3,51</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-6,56</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-8,46</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 6,3</t>
+          <t>-9,59; 9,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 11,5</t>
+          <t>-15,62; 6,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 17,33</t>
+          <t>-21,09; 0,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,95; -0,21</t>
+          <t>-16,12; 5,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 8,34</t>
+          <t>-0,2; 17,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 12,74</t>
+          <t>-9,85; 9,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 0,91</t>
+          <t>-13,26; 6,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 7,02</t>
+          <t>-22,32; -1,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 12,43</t>
+          <t>-1,57; 11,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,87; 4,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; -0,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-15,88; -1,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>-11,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-27,16%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-22,78%</t>
+          <t>-5,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>-16,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-10,87%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,63; 52,32</t>
+          <t>-11,08; 12,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 88,53</t>
+          <t>-18,19; 7,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 139,66</t>
+          <t>-24,68; 1,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,48; 0,42</t>
+          <t>-18,41; 6,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 36,62</t>
+          <t>-0,16; 26,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 55,81</t>
+          <t>-12,33; 13,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 4,61</t>
+          <t>-16,68; 9,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 37,76</t>
+          <t>-28,59; -2,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 64,53</t>
+          <t>-1,96; 15,52</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 5,79</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; -0,04</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-19,56; -1,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 5,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 0,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 6,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 9,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 7,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 44,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,32; 97,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 62,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 28,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 43,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 3,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 39,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 37,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-7,7</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,26</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-14,6</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-5,23</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-6,84</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-5,43</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-10,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 5,29</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-17,77; -0,49</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-13,73; -0,05</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-26,85; -5,52</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 11,43</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 5,87</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-11,61; 1,12</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; -0,08</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 6,94</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-9,19; 1,06</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-10,1; -0,16</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-17,5; -5,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-9,01%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-7,32%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-17,08%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-0,85%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-7,14%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-9,35%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-4,89%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-6,88%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-13,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 6,52</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-20,46; -0,73</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-15,64; -0,08</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-30,83; -6,74</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 16,39</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-9,28; 8,42</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,24; 1,53</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-17,84; -0,13</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 9,06</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-11,38; 1,25</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-12,49; -0,19</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-21,49; -6,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
